--- a/input/traffic/Freighttraffic.xlsx
+++ b/input/traffic/Freighttraffic.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5019B6-2627-4525-8F36-C6966694EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA395260-B1B2-4A6A-AD3E-E87C73EDAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="887" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tonnekm_road_rail_ship" sheetId="1" r:id="rId1"/>
     <sheet name="Tonnekm_flight" sheetId="2" r:id="rId2"/>
     <sheet name="Tonne_flight" sheetId="12" r:id="rId3"/>
-    <sheet name="ModalSplit_road" sheetId="9" r:id="rId4"/>
-    <sheet name="ModalSplit_rail" sheetId="8" r:id="rId5"/>
-    <sheet name="ModalSplit_ship" sheetId="10" r:id="rId6"/>
-    <sheet name="EnergyperSource" sheetId="11" r:id="rId7"/>
+    <sheet name="ModalSplit_road_his" sheetId="9" r:id="rId4"/>
+    <sheet name="ModalSplit_rail_his" sheetId="8" r:id="rId5"/>
+    <sheet name="ModalSplit_ship_his" sheetId="10" r:id="rId6"/>
+    <sheet name="ModalSplit_road_user" sheetId="13" r:id="rId7"/>
+    <sheet name="ModalSplit_rail_user" sheetId="14" r:id="rId8"/>
+    <sheet name="ModalSplit_ship_user" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,25 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="167">
-  <si>
-    <t>Energy consumption of various modes of transport</t>
-  </si>
-  <si>
-    <t>MJ/tkm</t>
-  </si>
-  <si>
-    <t>railways</t>
-  </si>
-  <si>
-    <t>waterways</t>
-  </si>
-  <si>
-    <t>roads</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="149">
   <si>
     <t>Belgien</t>
   </si>
@@ -271,15 +255,9 @@
     <t>tonne_km</t>
   </si>
   <si>
-    <t>mit Werten Eurostat Annahme ship=const</t>
-  </si>
-  <si>
     <t>https://data.oecd.org/transport/freight-transport.htm</t>
   </si>
   <si>
-    <t>rail</t>
-  </si>
-  <si>
     <t>https://op.europa.eu/en/publication-detail/-/publication/4b352d6f-b540-11e7-837e-01aa75ed71a1/language-en</t>
   </si>
   <si>
@@ -292,63 +270,18 @@
     <t>https://ec.europa.eu/eurostat/documents/3433488/5582112/KS-SF-08-035-EN.PDF/ae38f406-1b03-450e-ac62-1016143ce63c?version=1.0</t>
   </si>
   <si>
-    <t>https://www.forschungsinformationssystem.de/servlet/is/342234/</t>
-  </si>
-  <si>
     <t>https://thepep.unece.org/sites/default/files/2017-06/Modal.Split_.pdf</t>
   </si>
   <si>
-    <t>road</t>
-  </si>
-  <si>
     <t>https://unece.org/fileadmin/DAM/trans/doc/2018/wp6/Iceland.pdf</t>
   </si>
   <si>
-    <t>Elec</t>
-  </si>
-  <si>
-    <t>Plug-in-Hybrid</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>Kerosin</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Benzin</t>
-  </si>
-  <si>
-    <t>tank-to-wheel</t>
-  </si>
-  <si>
-    <t>Project Lab</t>
-  </si>
-  <si>
-    <t>Small trucks (&lt; 3,5t)</t>
-  </si>
-  <si>
     <t>https://www.statista.com/statistics/690518/freight-tonne-kilometers-of-the-icelandair-group/</t>
   </si>
   <si>
-    <t>ship</t>
-  </si>
-  <si>
     <t>Mil. tkm</t>
   </si>
   <si>
-    <t>Energy consumption MJ/tkm</t>
-  </si>
-  <si>
-    <t>Info-Source</t>
-  </si>
-  <si>
-    <t>flights</t>
-  </si>
-  <si>
     <t>Unit:</t>
   </si>
   <si>
@@ -472,12 +405,6 @@
     <t>same doc as</t>
   </si>
   <si>
-    <t>Bitte schauen, wo Deine Quelle Herr kamen. Denn bei dir stand, dass alle aus [1] kommen, obwohl das nicht stimmt</t>
-  </si>
-  <si>
-    <t>komplett andere werte im Bild</t>
-  </si>
-  <si>
     <t>[3], A1</t>
   </si>
   <si>
@@ -542,6 +469,27 @@
   </si>
   <si>
     <t>https://ec.europa.eu/eurostat/databrowser/view/avia_gonc/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>year 2013 for ship</t>
+  </si>
+  <si>
+    <t>based on [1]</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/435392/iceland-tonne-kilometres-of-freight-transported-by-road/</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[5], ModalSplit</t>
+  </si>
+  <si>
+    <t>F5</t>
   </si>
 </sst>
 </file>
@@ -610,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,14 +571,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -694,93 +636,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -791,20 +653,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -825,99 +677,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167971</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DD1915-1457-426E-81EC-838AE7D308FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3371850"/>
-          <a:ext cx="8315325" cy="4606621"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>27230</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>8771</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9781C22E-51B6-2992-3ABE-87822318305F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9639300" y="968119"/>
-          <a:ext cx="6466130" cy="3622177"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,631 +942,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>6698+11357+50797</f>
         <v>68852</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8">
         <v>19826</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8">
         <v>60039</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>21898</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>630070</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8">
         <v>5602</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8">
         <v>10912</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
         <v>19787</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8">
         <v>214290</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8">
         <v>322692</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8">
         <v>12942</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8">
         <v>168218</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8">
         <v>865</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8">
         <v>23546</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8">
         <v>24863</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="8">
         <v>2732</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8">
         <v>39188</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8">
         <v>500</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8">
         <v>109375</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="8">
         <v>69751</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22" s="8">
         <v>221435</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8">
         <v>19431</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8">
         <v>45286</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" s="8">
         <v>14612</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8">
         <v>25671</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="17">
+        <v>49</v>
+      </c>
+      <c r="C27">
         <f>27256+11175+121</f>
         <v>38552</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="8">
         <v>76711</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" s="8">
         <v>182605</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="18">
-        <v>1195</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30">
-        <v>815</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C31" s="8">
         <v>26619</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <f>22091+11776</f>
         <v>33867</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <f>169+103</f>
         <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C34">
         <f>305+10639</f>
         <v>10944</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <f>3932+6443</f>
         <v>10375</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <f>20.4+3497</f>
         <v>3517.4</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <f>1187.9+4303</f>
         <v>5490.9</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>123</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B40">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>103</v>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="B47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>80</v>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1597,10 @@
     <hyperlink ref="E41" r:id="rId1" xr:uid="{D6B419E9-1225-44E7-A00B-190445752CD5}"/>
     <hyperlink ref="E42" r:id="rId2" xr:uid="{3949E9C5-2082-4E77-BF5F-E98D386CA69E}"/>
     <hyperlink ref="E43" r:id="rId3" xr:uid="{199F2304-D031-44AB-88DE-82C396F14DB4}"/>
-    <hyperlink ref="E46" r:id="rId4" xr:uid="{63B9571A-38A7-4966-8A00-789737B6A519}"/>
+    <hyperlink ref="E49" r:id="rId4" xr:uid="{63B9571A-38A7-4966-8A00-789737B6A519}"/>
     <hyperlink ref="E44" r:id="rId5" xr:uid="{CA4EA2CB-549F-4B74-8520-3E4B5DF2D7A5}"/>
     <hyperlink ref="G43" r:id="rId6" xr:uid="{6A60939D-4B76-493F-8386-EA2263E3A420}"/>
-    <hyperlink ref="F30" r:id="rId7" xr:uid="{52BFE9C4-2A73-4D49-B17D-14E74ED1A70B}"/>
+    <hyperlink ref="E45" r:id="rId7" xr:uid="{350EB36A-D22A-40D0-8244-119E36664CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -1829,665 +1611,665 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>436000000</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>350000000</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
         <v>525000000</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>224000000</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>3352000000</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>204000000</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <v>618000000</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>282000000</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>447000000</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5">
         <v>1543000000</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>193000000</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
         <v>584000000</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>24000000</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <v>331000000</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <v>313000000</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5">
         <v>35000000</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5">
         <v>477000000</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5">
         <v>1000000</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5">
         <v>483000000</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5">
         <v>509000000</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>1368000000</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
         <v>100000000</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5">
         <v>950000000</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>64000000</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <v>239000000</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5">
         <v>267000000</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="5">
         <v>481000000</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" s="5">
         <v>1677000000</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5">
         <f>163.646*10^6</f>
         <v>163646000</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5">
         <v>62000000</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5">
         <v>131000000</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5">
         <f>915*E46</f>
         <v>457500</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5">
         <f>3298*E46</f>
         <v>1649000</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="5">
         <v>17711700</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36" s="5">
         <f xml:space="preserve"> 1857 * E46</f>
         <v>928500</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B40">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>104</v>
       </c>
-      <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
         <v>105</v>
-      </c>
-      <c r="C42" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2506,659 +2288,659 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB5868-0759-4EF9-994B-7A24A05F7933}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1416000</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>91000</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>242000</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>4840000</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>11000</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>156000</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>97000</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>807000</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2459000</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>12000</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>1055000</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>32000</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>25000</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>17000</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>895000</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>101000</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>18000</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1840000</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>238000</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>135000</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>173000</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>45000</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>12000</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>25000</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>197000</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>159000</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>2741000</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>56000</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>175000</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>431000</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>915</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="25">
+        <v>62</v>
+      </c>
+      <c r="C34" s="15">
         <v>3298</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>27375</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>1857</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>123</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B40">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>103</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+        <v>134</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+        <v>124</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>106</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="11"/>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+        <v>140</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3177,16 +2959,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>2010</v>
@@ -3222,12 +3006,12 @@
         <v>2020</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>73.400000000000006</v>
@@ -3260,12 +3044,12 @@
         <v>76.599999999999994</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>49.4</v>
@@ -3298,12 +3082,12 @@
         <v>47.1</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>69.8</v>
@@ -3336,12 +3120,12 @@
         <v>73.8</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>88.5</v>
@@ -3374,12 +3158,12 @@
         <v>88.5</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>70.5</v>
@@ -3412,12 +3196,12 @@
         <v>73.400000000000006</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>24.6</v>
@@ -3450,12 +3234,12 @@
         <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>99.1</v>
@@ -3488,12 +3272,12 @@
         <v>99.4</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>97.8</v>
@@ -3526,12 +3310,12 @@
         <v>97.5</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>95.4</v>
@@ -3564,12 +3348,12 @@
         <v>95.2</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>87.5</v>
@@ -3602,12 +3386,12 @@
         <v>87.9</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>69</v>
@@ -3640,12 +3424,12 @@
         <v>70.7</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>90.7</v>
@@ -3678,12 +3462,12 @@
         <v>88.1</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -3716,12 +3500,12 @@
         <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>17.899999999999999</v>
@@ -3754,12 +3538,12 @@
         <v>26.4</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>27.2</v>
@@ -3792,12 +3576,12 @@
         <v>32.6</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>75.5</v>
@@ -3830,12 +3614,12 @@
         <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>65.5</v>
@@ -3868,12 +3652,12 @@
         <v>68.5</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -3906,12 +3690,12 @@
         <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>48.4</v>
@@ -3944,12 +3728,12 @@
         <v>50.9</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>63</v>
@@ -3982,12 +3766,12 @@
         <v>66.7</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>70.400000000000006</v>
@@ -4020,12 +3804,12 @@
         <v>76</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>89.1</v>
@@ -4058,12 +3842,12 @@
         <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>36.9</v>
@@ -4096,12 +3880,12 @@
         <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>68.2</v>
@@ -4134,12 +3918,12 @@
         <v>64.5</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>55.9</v>
@@ -4172,12 +3956,12 @@
         <v>65.5</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>72.900000000000006</v>
@@ -4210,12 +3994,12 @@
         <v>72.8</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>64.400000000000006</v>
@@ -4248,12 +4032,12 @@
         <v>69.3</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>89</v>
@@ -4286,12 +4070,12 @@
         <v>90.8</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -4324,12 +4108,12 @@
         <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>84.6</v>
@@ -4362,12 +4146,12 @@
         <v>85.4</v>
       </c>
       <c r="M31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>66</v>
@@ -4400,12 +4184,12 @@
         <v>65.599999999999994</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="9">
         <v>52.515723270440247</v>
@@ -4432,12 +4216,12 @@
         <v>37.867647058823529</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="9">
         <v>86.729469588367806</v>
@@ -4473,12 +4257,12 @@
         <v>96.526707173301901</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B35" s="9">
         <v>26.117210453069429</v>
@@ -4514,12 +4298,12 @@
         <v>67.068099116271014</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B36" s="9">
         <v>98.551342138900722</v>
@@ -4534,12 +4318,12 @@
         <v>99.346590909090907</v>
       </c>
       <c r="M36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37" s="9">
         <v>62.792397660818708</v>
@@ -4572,127 +4356,127 @@
         <v>78.592013174145734</v>
       </c>
       <c r="M37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>127</v>
-      </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4714,18 +4498,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="11.5703125"/>
+    <col min="2" max="4" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>2010</v>
@@ -4770,12 +4556,12 @@
         <v>2020</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>12</v>
@@ -4808,12 +4594,12 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9">
         <v>17</v>
@@ -4846,12 +4632,12 @@
         <v>21.1</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9">
         <v>30.1</v>
@@ -4884,12 +4670,12 @@
         <v>26.2</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>11.5</v>
@@ -4922,12 +4708,12 @@
         <v>11.5</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9">
         <v>18.7</v>
@@ -4960,12 +4746,12 @@
         <v>18.7</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9">
         <v>75.400000000000006</v>
@@ -4998,12 +4784,12 @@
         <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="9">
         <v>0.9</v>
@@ -5036,12 +4822,12 @@
         <v>0.6</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="9">
         <v>2.2000000000000002</v>
@@ -5074,12 +4860,12 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>4.5999999999999996</v>
@@ -5112,12 +4898,12 @@
         <v>4.8</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9">
         <v>9.5</v>
@@ -5150,12 +4936,12 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9">
         <v>22.8</v>
@@ -5188,12 +4974,12 @@
         <v>22.8</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="9">
         <v>9.1999999999999993</v>
@@ -5226,12 +5012,12 @@
         <v>11.9</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -5264,12 +5050,12 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B15" s="9">
         <v>82.1</v>
@@ -5302,12 +5088,12 @@
         <v>73.599999999999994</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9">
         <v>72.8</v>
@@ -5340,12 +5126,12 @@
         <v>67.400000000000006</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="9">
         <v>11.6</v>
@@ -5378,12 +5164,12 @@
         <v>6.9</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9">
         <v>27.1</v>
@@ -5416,12 +5202,12 @@
         <v>26.3</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -5454,12 +5240,12 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9">
         <v>5.8</v>
@@ -5492,12 +5278,12 @@
         <v>6.3</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9">
         <v>33</v>
@@ -5530,12 +5316,12 @@
         <v>30.8</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" s="9">
         <v>29.5</v>
@@ -5568,12 +5354,12 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23" s="9">
         <v>10.9</v>
@@ -5606,12 +5392,12 @@
         <v>13</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9">
         <v>29.2</v>
@@ -5644,12 +5430,12 @@
         <v>26.8</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9">
         <v>31.8</v>
@@ -5682,12 +5468,12 @@
         <v>35.5</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9">
         <v>38.5</v>
@@ -5720,12 +5506,12 @@
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B27" s="9">
         <v>26.8</v>
@@ -5758,12 +5544,12 @@
         <v>26.9</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9">
         <v>35.6</v>
@@ -5796,12 +5582,12 @@
         <v>30.6</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>10.9</v>
@@ -5834,12 +5620,12 @@
         <v>9.1</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B30" s="9">
         <v>0</v>
@@ -5872,12 +5658,12 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>15.4</v>
@@ -5910,12 +5696,12 @@
         <v>14.6</v>
       </c>
       <c r="M31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>33.799999999999997</v>
@@ -5948,12 +5734,12 @@
         <v>34.299999999999997</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B33" s="9">
         <v>47.484276729559753</v>
@@ -5980,13 +5766,12 @@
         <v>62.132352941176471</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
-      </c>
-      <c r="N33" s="17"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="9">
         <v>10.751587139053861</v>
@@ -6022,13 +5807,12 @@
         <v>3.1014781898975241</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34" s="17"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B35" s="9">
         <v>54.461110252048861</v>
@@ -6064,15 +5848,12 @@
         <v>23.800034656038815</v>
       </c>
       <c r="M35" t="s">
-        <v>136</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B36" s="9">
         <v>1.4060502769492971</v>
@@ -6108,103 +5889,101 @@
         <v>0.75716778133178253</v>
       </c>
       <c r="M36" t="s">
-        <v>136</v>
-      </c>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="20">
+        <v>68</v>
+      </c>
+      <c r="C37" s="13">
         <v>37.207602339181285</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="13">
         <v>33.236994219653177</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="13">
         <v>31.215469613259668</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="13">
         <v>29.585398828301035</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="13">
         <v>27.41419739927521</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="13">
         <v>22.144657746751989</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="13">
         <v>20.88870815696567</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="13">
         <v>21.633582225459843</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="13">
         <v>22.566371681415927</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="13">
         <v>21.407986825854262</v>
       </c>
       <c r="M37" t="s">
-        <v>136</v>
-      </c>
-      <c r="N37" s="17"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6220,13 +5999,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>2010</v>
@@ -6262,12 +6043,12 @@
         <v>2020</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>14.6</v>
@@ -6300,12 +6081,12 @@
         <v>11.4</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>33.6</v>
@@ -6338,12 +6119,12 @@
         <v>31.8</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -6376,12 +6157,12 @@
         <v>0.1</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6414,12 +6195,12 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>10.8</v>
@@ -6452,164 +6233,164 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -6642,12 +6423,12 @@
         <v>2.4</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>8.1999999999999993</v>
@@ -6680,12 +6461,12 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -6718,126 +6499,126 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>31</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
       </c>
       <c r="B17">
         <v>12.9</v>
@@ -6870,12 +6651,12 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>7.4</v>
@@ -6908,12 +6689,12 @@
         <v>5.2</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6946,12 +6727,12 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>45.8</v>
@@ -6984,12 +6765,12 @@
         <v>42.7</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -7022,12 +6803,12 @@
         <v>2.4</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>0.1</v>
@@ -7060,12 +6841,12 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7098,12 +6879,12 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>33.799999999999997</v>
@@ -7136,12 +6917,12 @@
         <v>28.1</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7174,12 +6955,12 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>5.6</v>
@@ -7212,12 +6993,12 @@
         <v>3.6</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0.2</v>
@@ -7250,12 +7031,12 @@
         <v>0.3</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7288,12 +7069,12 @@
         <v>0.1</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>0.1</v>
@@ -7326,12 +7107,12 @@
         <v>0.1</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7364,12 +7145,12 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7402,12 +7183,12 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>0.1</v>
@@ -7440,267 +7221,267 @@
         <v>0.1</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9">
+        <f>100-ModalSplit_road_his!B35-ModalSplit_rail_his!B35</f>
+        <v>19.421679294881706</v>
+      </c>
+      <c r="C35" s="9">
+        <f>100-ModalSplit_road_his!C35-ModalSplit_rail_his!C35</f>
+        <v>18.757361601884568</v>
+      </c>
+      <c r="D35" s="9">
+        <f>100-ModalSplit_road_his!D35-ModalSplit_rail_his!D35</f>
+        <v>14.65082207390526</v>
+      </c>
+      <c r="E35" s="9">
+        <f>100-ModalSplit_road_his!E35-ModalSplit_rail_his!E35</f>
+        <v>15.61778290993071</v>
+      </c>
+      <c r="F35" s="9">
+        <f>100-ModalSplit_road_his!F35-ModalSplit_rail_his!F35</f>
+        <v>15.776802152669596</v>
+      </c>
+      <c r="G35" s="9">
+        <f>100-ModalSplit_road_his!G35-ModalSplit_rail_his!G35</f>
+        <v>16.887107548430201</v>
+      </c>
+      <c r="H35" s="9">
+        <f>100-ModalSplit_road_his!H35-ModalSplit_rail_his!H35</f>
+        <v>15.675305400159843</v>
+      </c>
+      <c r="I35" s="9">
+        <f>100-ModalSplit_road_his!I35-ModalSplit_rail_his!I35</f>
+        <v>12.729575680810647</v>
+      </c>
+      <c r="J35" s="9">
+        <f>100-ModalSplit_road_his!J35-ModalSplit_rail_his!J35</f>
+        <v>10.193993657899647</v>
+      </c>
+      <c r="K35" s="9">
+        <f>100-ModalSplit_road_his!K35-ModalSplit_rail_his!K35</f>
+        <v>9.6341163951870392</v>
+      </c>
+      <c r="L35" s="9">
+        <f>100-ModalSplit_road_his!L35-ModalSplit_rail_his!L35</f>
+        <v>9.1318662276901712</v>
+      </c>
+      <c r="M35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="9">
-        <f>100-ModalSplit_road!B35-ModalSplit_rail!B35</f>
-        <v>19.421679294881706</v>
-      </c>
-      <c r="C35" s="9">
-        <f>100-ModalSplit_road!C35-ModalSplit_rail!C35</f>
-        <v>18.757361601884568</v>
-      </c>
-      <c r="D35" s="9">
-        <f>100-ModalSplit_road!D35-ModalSplit_rail!D35</f>
-        <v>14.65082207390526</v>
-      </c>
-      <c r="E35" s="9">
-        <f>100-ModalSplit_road!E35-ModalSplit_rail!E35</f>
-        <v>15.61778290993071</v>
-      </c>
-      <c r="F35" s="9">
-        <f>100-ModalSplit_road!F35-ModalSplit_rail!F35</f>
-        <v>15.776802152669596</v>
-      </c>
-      <c r="G35" s="9">
-        <f>100-ModalSplit_road!G35-ModalSplit_rail!G35</f>
-        <v>16.887107548430201</v>
-      </c>
-      <c r="H35" s="9">
-        <f>100-ModalSplit_road!H35-ModalSplit_rail!H35</f>
-        <v>15.675305400159843</v>
-      </c>
-      <c r="I35" s="9">
-        <f>100-ModalSplit_road!I35-ModalSplit_rail!I35</f>
-        <v>12.729575680810647</v>
-      </c>
-      <c r="J35" s="9">
-        <f>100-ModalSplit_road!J35-ModalSplit_rail!J35</f>
-        <v>10.193993657899647</v>
-      </c>
-      <c r="K35" s="9">
-        <f>100-ModalSplit_road!K35-ModalSplit_rail!K35</f>
-        <v>9.6341163951870392</v>
-      </c>
-      <c r="L35" s="9">
-        <f>100-ModalSplit_road!L35-ModalSplit_rail!L35</f>
-        <v>9.1318662276901712</v>
-      </c>
-      <c r="M35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7713,200 +7494,2699 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18967F5-630D-422B-A1E1-F51EC6D72385}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>75.3</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>75.3</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>75.3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>75.3</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>56.2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="1">B3</f>
+        <v>56.2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>56.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>56.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:F4" si="2">B4</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>88.2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:F5" si="3">B5</f>
+        <v>88.2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>88.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>88.2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="4">B6</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>53.8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="5">B7</f>
+        <v>53.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>53.8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>53.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>99.2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="6">B8</f>
+        <v>99.2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="6"/>
+        <v>99.2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>99.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>97.9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="7">B9</f>
+        <v>97.9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="7"/>
+        <v>97.9</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>97.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="7"/>
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="8">B10</f>
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>87.8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="9">B11</f>
+        <v>87.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>87.8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="9"/>
+        <v>87.8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="10">B12</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="10"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="10"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>86.9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="11">B13</f>
+        <v>86.9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="11"/>
+        <v>86.9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>86.9</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="11"/>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="12">B14</f>
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>24.2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:F15" si="13">B15</f>
+        <v>24.2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="13"/>
+        <v>24.2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="13"/>
+        <v>24.2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="13"/>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>32.1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:F16" si="14">B16</f>
+        <v>32.1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="14"/>
+        <v>32.1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="14"/>
+        <v>32.1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="14"/>
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>84.4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="15">B17</f>
+        <v>84.4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="15"/>
+        <v>84.4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="15"/>
+        <v>84.4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="16">B18</f>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="16"/>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="16"/>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="16"/>
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="17">B19</f>
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>50.4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="18">B20</f>
+        <v>50.4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="18"/>
+        <v>50.4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="18"/>
+        <v>50.4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="18"/>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>66.3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="19">B21</f>
+        <v>66.3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="19"/>
+        <v>66.3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="19"/>
+        <v>66.3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="19"/>
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="20">B22</f>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="20"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="20"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="20"/>
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>85.8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="21">B23</f>
+        <v>85.8</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="21"/>
+        <v>85.8</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="21"/>
+        <v>85.8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="21"/>
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:F24" si="22">B24</f>
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>64.7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:F25" si="23">B25</f>
+        <v>64.7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="23"/>
+        <v>64.7</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="23"/>
+        <v>64.7</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="23"/>
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="24">B26</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="24"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="24"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="24"/>
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>70.7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:F27" si="25">B27</f>
+        <v>70.7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="25"/>
+        <v>70.7</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="25"/>
+        <v>70.7</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="25"/>
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>69.3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:F28" si="26">B28</f>
+        <v>69.3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="26"/>
+        <v>69.3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="26"/>
+        <v>69.3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="26"/>
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>90.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:F29" si="27">B29</f>
+        <v>90.5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>90.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="27"/>
+        <v>90.5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="27"/>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:F30" si="28">B30</f>
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:F31" si="29">B31</f>
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="29"/>
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="29"/>
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="29"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>65.2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:F32" si="30">B32</f>
+        <v>65.2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="30"/>
+        <v>65.2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="30"/>
+        <v>65.2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="30"/>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F33" si="31">B33</f>
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="31"/>
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="31"/>
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="31"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9">
+        <v>97.106608251186572</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="32">B34</f>
+        <v>97.106608251186572</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="32"/>
+        <v>97.106608251186572</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="32"/>
+        <v>97.106608251186572</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="32"/>
+        <v>97.106608251186572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9">
+        <v>60.091400858048871</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F35" si="33">B35</f>
+        <v>60.091400858048871</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="33"/>
+        <v>60.091400858048871</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="33"/>
+        <v>60.091400858048871</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="33"/>
+        <v>60.091400858048871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>99</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="34">B36</f>
+        <v>99</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="34"/>
+        <v>99</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="34"/>
+        <v>99</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="34"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="9">
+        <v>78.366417774540167</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:F37" si="35">B37</f>
+        <v>78.366417774540167</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="35"/>
+        <v>78.366417774540167</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="35"/>
+        <v>78.366417774540167</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="35"/>
+        <v>78.366417774540167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C648A20F-2F15-40CE-A863-01DAB9BDF937}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2</f>
+        <v>12.2</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>12.2</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:F37" si="1">B3</f>
+        <v>19.3</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" si="1"/>
+        <v>19.3</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" si="1"/>
+        <v>19.3</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="1"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="B4" s="9">
+        <v>27.6</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>46.2</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>46.2</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="1"/>
+        <v>46.2</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>46.2</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13.1</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9">
+        <v>75.8</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="1"/>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9">
+        <v>31.5</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9">
+        <v>26.8</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="1"/>
+        <v>26.8</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="1"/>
+        <v>26.8</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
+        <v>26.8</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="9">
+        <v>28.9</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="1"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="1"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>32.6</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="1"/>
+        <v>32.6</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>32.6</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>9.4</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="1"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="1"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>62</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2.7838627236217599</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7838627236217599</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7838627236217599</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7838627236217599</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7838627236217599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9">
+        <v>29.714605484051482</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>29.714605484051482</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="1"/>
+        <v>29.714605484051482</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
+        <v>29.714605484051482</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="1"/>
+        <v>29.714605484051482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0.82725060827250596</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82725060827250596</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82725060827250596</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82725060827250596</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82725060827250596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="13">
+        <v>21.633582225459843</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
+        <v>21.633582225459843</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="1"/>
+        <v>21.633582225459843</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="1"/>
+        <v>21.633582225459843</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="1"/>
+        <v>21.633582225459843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052CC0B-0C15-44F5-99CF-641815B93F1C}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2030</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12.5</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>12.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>12.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>24.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="1">B3</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:F4" si="2">B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:F5" si="3">B5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="4">B6</f>
+        <v>7.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="5">B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="6">B8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="7">B9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="8">B10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="9">B11</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>5.2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:F12" si="10">B12</f>
+        <v>5.2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="10"/>
+        <v>5.2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="10"/>
+        <v>5.2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:F13" si="11">B13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="12">B14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:F15" si="13">B15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:F16" si="14">B16</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>7.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="15">B17</f>
+        <v>7.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="16">B18</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="16"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="16"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="16"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="17">B19</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>43.2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="18">B20</f>
+        <v>43.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="18"/>
+        <v>43.2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="18"/>
+        <v>43.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="18"/>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2.1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="19">B21</f>
+        <v>2.1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="19"/>
+        <v>2.1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="19"/>
+        <v>2.1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="19"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="20">B22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="21">B23</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>27.1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:F24" si="22">B24</f>
+        <v>27.1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="22"/>
+        <v>27.1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="22"/>
+        <v>27.1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="22"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:F25" si="23">B25</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="24">B26</f>
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
         <v>0.4</v>
       </c>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="C27">
+        <f t="shared" ref="C27:F27" si="25">B27</f>
         <v>0.4</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="D27">
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="E3" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="E27">
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="F27">
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="E5" s="21">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.52</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="E13">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>95</v>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:F28" si="26">B28</f>
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:F29" si="27">B29</f>
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:F30" si="28">B30</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:F31" si="29">B31</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:F32" si="30">B32</f>
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F33" si="31">B33</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="32">B34</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9">
+        <f>100-ModalSplit_road_his!B35-ModalSplit_rail_his!B35</f>
+        <v>19.421679294881706</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F35" si="33">B35</f>
+        <v>19.421679294881706</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="33"/>
+        <v>19.421679294881706</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="33"/>
+        <v>19.421679294881706</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="33"/>
+        <v>19.421679294881706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="34">B36</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:F37" si="35">B37</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{ACC52CFD-8BF0-4569-96C8-A5A0CC3425E4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/traffic/Freighttraffic.xlsx
+++ b/input/traffic/Freighttraffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/chris_kobalt_tum_de/Documents/Documents/Master_Semester_1/IDP/endemo2/input/traffic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA395260-B1B2-4A6A-AD3E-E87C73EDAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="887" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="15400" tabRatio="887" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tonnekm_road_rail_ship" sheetId="1" r:id="rId1"/>
@@ -662,9 +662,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,11 +944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.453125" customWidth="1"/>
@@ -1611,11 +1611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -2288,11 +2288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB5868-0759-4EF9-994B-7A24A05F7933}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
@@ -2959,11 +2959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
@@ -4500,11 +4500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="11.54296875"/>
   </cols>
@@ -5999,11 +5999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -7501,7 +7501,7 @@
       <selection activeCell="C2" sqref="C2:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -8400,7 +8400,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -9295,11 +9295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052CC0B-0C15-44F5-99CF-641815B93F1C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/input/traffic/Freighttraffic.xlsx
+++ b/input/traffic/Freighttraffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/chris_kobalt_tum_de/Documents/Documents/Master_Semester_1/IDP/endemo2/input/traffic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA395260-B1B2-4A6A-AD3E-E87C73EDAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="15400" tabRatio="887" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="887" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tonnekm_road_rail_ship" sheetId="1" r:id="rId1"/>
@@ -662,9 +662,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,11 +944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.453125" customWidth="1"/>
@@ -1611,11 +1611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -2288,11 +2288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB5868-0759-4EF9-994B-7A24A05F7933}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
@@ -2959,11 +2959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
@@ -4500,11 +4500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="11.54296875"/>
   </cols>
@@ -5999,11 +5999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -7501,7 +7501,7 @@
       <selection activeCell="C2" sqref="C2:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -8400,7 +8400,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -9295,11 +9295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052CC0B-0C15-44F5-99CF-641815B93F1C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
